--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_14_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_14_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,881 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_9</t>
+          <t>model_14_9_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9495912408547604</v>
+        <v>0.9630984280906534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7428605070484945</v>
+        <v>0.7031722818932307</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9618648147819689</v>
+        <v>0.898014994557696</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.54930026677308</v>
+        <v>-1.199061719417796</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8448509605599994</v>
+        <v>0.8694506466394345</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3370836045152101</v>
+        <v>0.2467609812739158</v>
       </c>
       <c r="H2" t="n">
-        <v>1.719492973385212</v>
+        <v>1.984888317745934</v>
       </c>
       <c r="I2" t="n">
-        <v>0.384497940198411</v>
+        <v>0.2850201231739833</v>
       </c>
       <c r="J2" t="n">
-        <v>1.43562215138536</v>
+        <v>0.8608690051736925</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9100600457918853</v>
+        <v>0.5729445641738379</v>
       </c>
       <c r="L2" t="n">
-        <v>1.303330158882859</v>
+        <v>0.8495441045592638</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5805890151520351</v>
+        <v>0.4967504215135764</v>
       </c>
       <c r="N2" t="n">
-        <v>1.134423357720639</v>
+        <v>1.098404191758258</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6053058915120035</v>
+        <v>0.5178981153725414</v>
       </c>
       <c r="P2" t="n">
-        <v>68.17484858956561</v>
+        <v>68.79867019603157</v>
       </c>
       <c r="Q2" t="n">
-        <v>108.3977508102162</v>
+        <v>109.0215724166822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_10</t>
+          <t>model_14_9_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9481954819993667</v>
+        <v>0.9638812942110589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7425780402297182</v>
+        <v>0.702910679462371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9621626225794728</v>
+        <v>0.9178353995106543</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.833072674054625</v>
+        <v>-1.022397275944726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8353229054769936</v>
+        <v>0.883640616699502</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3464170504081068</v>
+        <v>0.2415259519219968</v>
       </c>
       <c r="H3" t="n">
-        <v>1.721381830303008</v>
+        <v>1.986637654405661</v>
       </c>
       <c r="I3" t="n">
-        <v>0.381495293585825</v>
+        <v>0.2296275266197151</v>
       </c>
       <c r="J3" t="n">
-        <v>1.550402508984048</v>
+        <v>0.7917099895993178</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9659489012849363</v>
+        <v>0.5106687581095164</v>
       </c>
       <c r="L3" t="n">
-        <v>1.310135604990377</v>
+        <v>0.8201851759717244</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5885720435155808</v>
+        <v>0.4914528989862577</v>
       </c>
       <c r="N3" t="n">
-        <v>1.138145381335022</v>
+        <v>1.09631654877051</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6136287739201323</v>
+        <v>0.5123750663438513</v>
       </c>
       <c r="P3" t="n">
-        <v>68.1202237635456</v>
+        <v>68.84155670057669</v>
       </c>
       <c r="Q3" t="n">
-        <v>108.3431259841962</v>
+        <v>109.0644589212273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_8</t>
+          <t>model_14_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9498569901607926</v>
+        <v>0.9622754245554404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7420322251242167</v>
+        <v>0.7025501901079396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9620840505767445</v>
+        <v>0.879249567852316</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.364810324558698</v>
+        <v>-1.344611462753972</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8514002898267728</v>
+        <v>0.8569842860987011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3353065376821098</v>
+        <v>0.2522644097034684</v>
       </c>
       <c r="H4" t="n">
-        <v>1.725031698426744</v>
+        <v>1.989048248378644</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3822874956699</v>
+        <v>0.3374643448297401</v>
       </c>
       <c r="J4" t="n">
-        <v>1.360999598249957</v>
+        <v>0.9178475163462999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8716435469599286</v>
+        <v>0.6276559305880201</v>
       </c>
       <c r="L4" t="n">
-        <v>1.301806188133315</v>
+        <v>0.8632475404635508</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5790565928146486</v>
+        <v>0.5022593052432861</v>
       </c>
       <c r="N4" t="n">
-        <v>1.133714692904553</v>
+        <v>1.100598867852159</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6037082307831629</v>
+        <v>0.5236415236875863</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18542025538392</v>
+        <v>68.75455499337664</v>
       </c>
       <c r="Q4" t="n">
-        <v>108.4083224760345</v>
+        <v>108.9774572140273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_11</t>
+          <t>model_14_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9457539691391039</v>
+        <v>0.9614032228820867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7414158706998273</v>
+        <v>0.7014736802631827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9628809862479565</v>
+        <v>0.8621794420440159</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.21085662613168</v>
+        <v>-1.471774301664066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8229149314836134</v>
+        <v>0.8458777573318964</v>
       </c>
       <c r="G5" t="n">
-        <v>0.362743458146817</v>
+        <v>0.2580968263093032</v>
       </c>
       <c r="H5" t="n">
-        <v>1.729153263300688</v>
+        <v>1.996246874667406</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3742523931182868</v>
+        <v>0.3851706653753575</v>
       </c>
       <c r="J5" t="n">
-        <v>1.703208687462945</v>
+        <v>0.9676280866963569</v>
       </c>
       <c r="K5" t="n">
-        <v>1.038730540290616</v>
+        <v>0.6763993760358573</v>
       </c>
       <c r="L5" t="n">
-        <v>1.319483222160959</v>
+        <v>0.8680138475965721</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6022818759906502</v>
+        <v>0.5080323083321603</v>
       </c>
       <c r="N5" t="n">
-        <v>1.144656082295723</v>
+        <v>1.102924738981102</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6279222623469309</v>
+        <v>0.5296602954697177</v>
       </c>
       <c r="P5" t="n">
-        <v>68.02811884286943</v>
+        <v>68.70884093738773</v>
       </c>
       <c r="Q5" t="n">
-        <v>108.2510210635201</v>
+        <v>108.9317431580384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_7</t>
+          <t>model_14_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9490360066738928</v>
+        <v>0.9604993899101273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7398807952168054</v>
+        <v>0.7001886276612017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9628803002017666</v>
+        <v>0.8470195668309632</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.269011810820007</v>
+        <v>-1.58655302944651</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8553875957452769</v>
+        <v>0.8359317773671342</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3407964580392905</v>
+        <v>0.2641407615545641</v>
       </c>
       <c r="H6" t="n">
-        <v>1.739418320124028</v>
+        <v>2.004840027333976</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3742593101778313</v>
+        <v>0.4275383593494576</v>
       </c>
       <c r="J6" t="n">
-        <v>1.322250983577776</v>
+        <v>1.012560636032596</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8482551468778038</v>
+        <v>0.7200494976910268</v>
       </c>
       <c r="L6" t="n">
-        <v>1.309269356807257</v>
+        <v>0.8676270857700626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5837777471258138</v>
+        <v>0.5139462632946796</v>
       </c>
       <c r="N6" t="n">
-        <v>1.135903982202953</v>
+        <v>1.10533496023966</v>
       </c>
       <c r="O6" t="n">
-        <v>0.608630374407491</v>
+        <v>0.5358260197385659</v>
       </c>
       <c r="P6" t="n">
-        <v>68.15293975431636</v>
+        <v>68.66254626044639</v>
       </c>
       <c r="Q6" t="n">
-        <v>108.375841974967</v>
+        <v>108.885448481097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_12</t>
+          <t>model_14_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9424359870705287</v>
+        <v>0.9595886711178148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7396057829774312</v>
+        <v>0.6988363948098447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9639225365430617</v>
+        <v>0.8337564127748451</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.66733579168092</v>
+        <v>-1.691621254863721</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8080714370508513</v>
+        <v>0.8270227963431983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3849308195172825</v>
+        <v>0.270230742312232</v>
       </c>
       <c r="H7" t="n">
-        <v>1.741257328235038</v>
+        <v>2.01388241463746</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3637509640366819</v>
+        <v>0.4646052378219886</v>
       </c>
       <c r="J7" t="n">
-        <v>1.887845532038567</v>
+        <v>1.053691804790436</v>
       </c>
       <c r="K7" t="n">
-        <v>1.125798248037624</v>
+        <v>0.7591485213062124</v>
       </c>
       <c r="L7" t="n">
-        <v>1.329535629077522</v>
+        <v>0.864282084291518</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6204279325733831</v>
+        <v>0.5198372267472118</v>
       </c>
       <c r="N7" t="n">
-        <v>1.15350403447859</v>
+        <v>1.107763543685827</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6468408341259064</v>
+        <v>0.5419677737012478</v>
       </c>
       <c r="P7" t="n">
-        <v>67.90938330081191</v>
+        <v>68.616958167582</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1322855214625</v>
+        <v>108.8398603882326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_13</t>
+          <t>model_14_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9384504329177424</v>
+        <v>0.9586935047929173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.737358826190178</v>
+        <v>0.6974972745792947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9651868184083143</v>
+        <v>0.822263442390585</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.182114999952339</v>
+        <v>-1.788163467159019</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7914092785655966</v>
+        <v>0.8190576970399742</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4115822384887532</v>
+        <v>0.2762167236486843</v>
       </c>
       <c r="H8" t="n">
-        <v>1.756282738617684</v>
+        <v>2.02283711778523</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3510038442773161</v>
+        <v>0.4967249383637505</v>
       </c>
       <c r="J8" t="n">
-        <v>2.096063597268357</v>
+        <v>1.091485286220291</v>
       </c>
       <c r="K8" t="n">
-        <v>1.223533720772836</v>
+        <v>0.7941051122920206</v>
       </c>
       <c r="L8" t="n">
-        <v>1.339305267168745</v>
+        <v>0.8592625348556276</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6415467547176537</v>
+        <v>0.5255632441949154</v>
       </c>
       <c r="N8" t="n">
-        <v>1.16413217888602</v>
+        <v>1.110150653885554</v>
       </c>
       <c r="O8" t="n">
-        <v>0.668858728250847</v>
+        <v>0.5479375595661904</v>
       </c>
       <c r="P8" t="n">
-        <v>67.77549285662603</v>
+        <v>68.57313898157216</v>
       </c>
       <c r="Q8" t="n">
-        <v>107.9983950772767</v>
+        <v>108.7960412022228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_6</t>
+          <t>model_14_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9472563376630316</v>
+        <v>0.9578302608428517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7361944781280052</v>
+        <v>0.6962153944508271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9641563716135586</v>
+        <v>0.8123619869472305</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.23587245972823</v>
+        <v>-1.876845949115154</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8576268968061732</v>
+        <v>0.8119498755591525</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3526971129095411</v>
+        <v>0.2819892399176451</v>
       </c>
       <c r="H9" t="n">
-        <v>1.764068739470764</v>
+        <v>2.031409056106808</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3613933223355039</v>
+        <v>0.5243967910819739</v>
       </c>
       <c r="J9" t="n">
-        <v>1.308846767835515</v>
+        <v>1.126201910744192</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8351200450855094</v>
+        <v>0.8252993509130829</v>
       </c>
       <c r="L9" t="n">
-        <v>1.328654648312792</v>
+        <v>0.853373244342197</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5938830801677558</v>
+        <v>0.5310265905937716</v>
       </c>
       <c r="N9" t="n">
-        <v>1.140649766231916</v>
+        <v>1.112452637752395</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6191659123979518</v>
+        <v>0.553633491931932</v>
       </c>
       <c r="P9" t="n">
-        <v>68.08429125491364</v>
+        <v>68.5317727301848</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.3071934755643</v>
+        <v>108.7546749508354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_14</t>
+          <t>model_14_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9340123281498852</v>
+        <v>0.957009757505676</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7348536293711271</v>
+        <v>0.6950132783679539</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9665711329499016</v>
+        <v>0.8038586122068094</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.73338679906088</v>
+        <v>-1.958133103729216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.773592077085195</v>
+        <v>0.8056170304583437</v>
       </c>
       <c r="G10" t="n">
-        <v>0.441259865507008</v>
+        <v>0.2874759495114101</v>
       </c>
       <c r="H10" t="n">
-        <v>1.773035001282049</v>
+        <v>2.039447611888217</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3370464952626505</v>
+        <v>0.5481613916269086</v>
       </c>
       <c r="J10" t="n">
-        <v>2.319042197766932</v>
+        <v>1.158023478692059</v>
       </c>
       <c r="K10" t="n">
-        <v>1.328044346514791</v>
+        <v>0.8530924351594837</v>
       </c>
       <c r="L10" t="n">
-        <v>1.348279025808351</v>
+        <v>0.8470880934053566</v>
       </c>
       <c r="M10" t="n">
-        <v>0.664273938602899</v>
+        <v>0.5361678370728797</v>
       </c>
       <c r="N10" t="n">
-        <v>1.175967124933639</v>
+        <v>1.114640646651531</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6925534554058437</v>
+        <v>0.5589936119175032</v>
       </c>
       <c r="P10" t="n">
-        <v>67.63624262579006</v>
+        <v>68.49323215223454</v>
       </c>
       <c r="Q10" t="n">
-        <v>107.8591448464407</v>
+        <v>108.7161343728852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_15</t>
+          <t>model_14_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9293209919704359</v>
+        <v>0.9562380402207826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7322308454252238</v>
+        <v>0.6939004413098016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9679836342276844</v>
+        <v>0.7965660450245171</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.300696042304033</v>
+        <v>-2.032493273309649</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7552461559152559</v>
+        <v>0.7999786462873536</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4726308521406022</v>
+        <v>0.2926364265489227</v>
       </c>
       <c r="H11" t="n">
-        <v>1.790573569605114</v>
+        <v>2.046889158420225</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3228049535281591</v>
+        <v>0.5685421170829403</v>
       </c>
       <c r="J11" t="n">
-        <v>2.548507628998537</v>
+        <v>1.187133332520174</v>
       </c>
       <c r="K11" t="n">
-        <v>1.435656291263348</v>
+        <v>0.8778377248015571</v>
       </c>
       <c r="L11" t="n">
-        <v>1.356234169812274</v>
+        <v>0.8407295835308239</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6874815285813882</v>
+        <v>0.5409588030052961</v>
       </c>
       <c r="N11" t="n">
-        <v>1.188477354745504</v>
+        <v>1.116698559411246</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7167490405360514</v>
+        <v>0.5639885391883293</v>
       </c>
       <c r="P11" t="n">
-        <v>67.49888126928131</v>
+        <v>68.45764861099255</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.7217834899319</v>
+        <v>108.6805508316432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_5</t>
+          <t>model_14_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9446427753775037</v>
+        <v>0.9555177763460576</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7307457901405122</v>
+        <v>0.6928788094129175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9656406736830019</v>
+        <v>0.7903107516287363</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.231709880744933</v>
+        <v>-2.100371095272865</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8590460890498381</v>
+        <v>0.7949596394256417</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3701740159472138</v>
+        <v>0.2974528343957192</v>
       </c>
       <c r="H12" t="n">
-        <v>1.800504141132031</v>
+        <v>2.053720815618871</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3464278492410313</v>
+        <v>0.5860239467541017</v>
       </c>
       <c r="J12" t="n">
-        <v>1.307163086505069</v>
+        <v>1.21370553490579</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8267954678730502</v>
+        <v>0.8998647408299458</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36854934257081</v>
+        <v>0.8344989631357561</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6084192764428276</v>
+        <v>0.5453923673794118</v>
       </c>
       <c r="N12" t="n">
-        <v>1.14761926565999</v>
+        <v>1.11861926307718</v>
       </c>
       <c r="O12" t="n">
-        <v>0.634320944642528</v>
+        <v>0.5686108495765945</v>
       </c>
       <c r="P12" t="n">
-        <v>67.98756414107137</v>
+        <v>68.42499921282308</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.210466361722</v>
+        <v>108.6479014334737</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_4</t>
+          <t>model_14_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9414247473018453</v>
+        <v>0.9548494120681839</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7234470729835656</v>
+        <v>0.6919460148179157</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9671455779351624</v>
+        <v>0.7849389723797133</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.21212390413941</v>
+        <v>-2.162230540846007</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8610147609803516</v>
+        <v>0.7904903600292836</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3916929845067984</v>
+        <v>0.3019221893993957</v>
       </c>
       <c r="H13" t="n">
-        <v>1.849310696368035</v>
+        <v>2.059958417370771</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3312546546742986</v>
+        <v>0.6010365966684673</v>
       </c>
       <c r="J13" t="n">
-        <v>1.299240944178979</v>
+        <v>1.237921717153392</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8152477994266391</v>
+        <v>0.9194791569109297</v>
       </c>
       <c r="L13" t="n">
-        <v>1.408509545316946</v>
+        <v>0.8285053723590817</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6258538044198488</v>
+        <v>0.5494744665581793</v>
       </c>
       <c r="N13" t="n">
-        <v>1.156200673861746</v>
+        <v>1.120401567818176</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6524976965699792</v>
+        <v>0.5728667321685124</v>
       </c>
       <c r="P13" t="n">
-        <v>67.87455389768799</v>
+        <v>68.39517189160074</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.0974561183386</v>
+        <v>108.6180741122513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_3</t>
+          <t>model_14_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9380984554182378</v>
+        <v>0.9542318559891433</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7146869106202687</v>
+        <v>0.6910974220882526</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9686605027913375</v>
+        <v>0.780315801960117</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.114542750698801</v>
+        <v>-2.218510175584503</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8656811899482129</v>
+        <v>0.7865082945315813</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4139359136486485</v>
+        <v>0.306051789743524</v>
       </c>
       <c r="H14" t="n">
-        <v>1.907889942428241</v>
+        <v>2.065632960861439</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3159804273846065</v>
+        <v>0.6139570901933036</v>
       </c>
       <c r="J14" t="n">
-        <v>1.259771286807771</v>
+        <v>1.259953564982426</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7878758570961889</v>
+        <v>0.9369553275878649</v>
       </c>
       <c r="L14" t="n">
-        <v>1.427862701021261</v>
+        <v>0.8228214286553814</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6433785150660911</v>
+        <v>0.5532194770102766</v>
       </c>
       <c r="N14" t="n">
-        <v>1.165070785551366</v>
+        <v>1.122048384028951</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6707684704295842</v>
+        <v>0.5767711754687959</v>
       </c>
       <c r="P14" t="n">
-        <v>67.76408823017877</v>
+        <v>68.36800188764529</v>
       </c>
       <c r="Q14" t="n">
-        <v>107.9869904508294</v>
+        <v>108.5909041082959</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_2</t>
+          <t>model_14_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9352152241241194</v>
+        <v>0.9536630374737791</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7055006345901718</v>
+        <v>0.6903273390903024</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9701382134579515</v>
+        <v>0.7763274158584366</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.882206274286743</v>
+        <v>-2.269676323873575</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8749617764346039</v>
+        <v>0.7829564034325946</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4332160945884775</v>
+        <v>0.3098554817749328</v>
       </c>
       <c r="H15" t="n">
-        <v>1.969318612540411</v>
+        <v>2.070782509414639</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3010814120979669</v>
+        <v>0.6251035356245339</v>
       </c>
       <c r="J15" t="n">
-        <v>1.165795751620036</v>
+        <v>1.279983630890647</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7334385818590012</v>
+        <v>0.9525435832575905</v>
       </c>
       <c r="L15" t="n">
-        <v>1.40687684798905</v>
+        <v>0.8174939582846897</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6581915333612834</v>
+        <v>0.5566466399565642</v>
       </c>
       <c r="N15" t="n">
-        <v>1.172759402335682</v>
+        <v>1.123565233403256</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6862121095807779</v>
+        <v>0.5803442398369123</v>
       </c>
       <c r="P15" t="n">
-        <v>67.6730372235116</v>
+        <v>68.34329855605014</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.8959394441622</v>
+        <v>108.5662007767008</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_1</t>
+          <t>model_14_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9325875074510909</v>
+        <v>0.9531405875812119</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6966060650594543</v>
+        <v>0.6896296824548194</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9717664513562538</v>
+        <v>0.7728780961257191</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.530306051301922</v>
+        <v>-2.316132826212277</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8884940930697209</v>
+        <v>0.7797861991004579</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4507876480805417</v>
+        <v>0.3133491066121902</v>
       </c>
       <c r="H16" t="n">
-        <v>2.028796639948045</v>
+        <v>2.075447742548527</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2846647062534587</v>
+        <v>0.6347434383810401</v>
       </c>
       <c r="J16" t="n">
-        <v>1.023459032485882</v>
+        <v>1.298170006743143</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6540618693696703</v>
+        <v>0.9664567225620916</v>
       </c>
       <c r="L16" t="n">
-        <v>1.342874432937822</v>
+        <v>0.8125281212610561</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6714072147963125</v>
+        <v>0.5597759432238851</v>
       </c>
       <c r="N16" t="n">
-        <v>1.179766646797091</v>
+        <v>1.124958433116768</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6999904099347283</v>
+        <v>0.5836067640228738</v>
       </c>
       <c r="P16" t="n">
-        <v>67.5935177943814</v>
+        <v>68.32087470680311</v>
       </c>
       <c r="Q16" t="n">
-        <v>107.816420015032</v>
+        <v>108.5437769274537</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_0</t>
+          <t>model_14_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9292677440869446</v>
+        <v>0.9526617099063455</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6875220092352823</v>
+        <v>0.6889982802733642</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9742194945216694</v>
+        <v>0.769886313959114</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.129863285980184</v>
+        <v>-2.358303561099609</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9044089497212586</v>
+        <v>0.776952818020935</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4729869209826931</v>
+        <v>0.3165513638290509</v>
       </c>
       <c r="H17" t="n">
-        <v>2.089541763072514</v>
+        <v>2.079669931843258</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2599319027039919</v>
+        <v>0.6431046491093948</v>
       </c>
       <c r="J17" t="n">
-        <v>0.861487809695942</v>
+        <v>1.314678628701927</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5607098561999669</v>
+        <v>0.9788916389056606</v>
       </c>
       <c r="L17" t="n">
-        <v>1.24744034342335</v>
+        <v>0.8079435945331742</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6877404459406856</v>
+        <v>0.5626289752839352</v>
       </c>
       <c r="N17" t="n">
-        <v>1.188619349101481</v>
+        <v>1.126235440249745</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7170189805433669</v>
+        <v>0.5865812555643106</v>
       </c>
       <c r="P17" t="n">
-        <v>67.49737508414377</v>
+        <v>68.30053952717078</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.7202773047944</v>
+        <v>108.5234417478214</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9522236221804248</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.688427487112875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7672836955805694</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-2.396528492430547</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7744193277877713</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.319480858469491</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.083486828335709</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6503782537693201</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.329642582790677</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9900104182799989</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.8037198637766728</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5652263780729727</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.127403674185534</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5892892351674425</v>
+      </c>
+      <c r="P18" t="n">
+        <v>68.28211583570578</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>108.5050180563564</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9518234745831047</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6879117191452859</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7650133862444721</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-2.4311645781494</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7721517057107791</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3221566472952811</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.086935771109871</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6567231457837013</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.343201607711448</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9999623767475749</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.7998392729023639</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5675884488740773</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.128470734445054</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5917518642127109</v>
+      </c>
+      <c r="P19" t="n">
+        <v>68.26543473889677</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>108.4883369595474</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9514585269525384</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6874457984583364</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7630282229665638</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.462538480000414</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7701203661452127</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3245970537813068</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.09005138488887</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.662271132760179</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.355483582080977</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.008877357420578</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.7962895999192514</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5697341957275399</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.129443928126564</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.5939889599520337</v>
+      </c>
+      <c r="P20" t="n">
+        <v>68.2503414008043</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>108.4732436214549</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9511260099755892</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.687025277890275</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7612870480842627</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.490939870293405</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7682992852501956</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3268205963372665</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.092863407863816</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6671372390791285</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.366601904223181</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.016869571651154</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7930507842825711</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5716822512001457</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.130330640065096</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5960199481791391</v>
+      </c>
+      <c r="P21" t="n">
+        <v>68.23668778738879</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>108.4595900080394</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9508234855064627</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6866456832326451</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7597577161375472</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-2.516637539355898</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7666662399885009</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3288435788553122</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.09540175908726</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6714113024861591</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.376661797770401</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.02403655012828</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.7900972489772704</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5734488458923883</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.131137371982766</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5978617504647856</v>
+      </c>
+      <c r="P22" t="n">
+        <v>68.22434617096995</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>108.4472483916206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9505484528308727</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6863032055403742</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.758409784499823</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.539873968165244</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7652007228915988</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3306827236233916</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.09769190899244</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.675178401774413</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.385758187005983</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.030468294390198</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.7874166940354111</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5750501922644593</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.131870792451006</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5995312694671596</v>
+      </c>
+      <c r="P23" t="n">
+        <v>68.21319180439882</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>108.4360940250494</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9502986444113517</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6859941539049819</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7572197811549429</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.560878420662104</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7638850354001254</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3323531936749903</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.09975853870136</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6785041347923617</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.393980822126009</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.036242478459185</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.7849748322078918</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5765008184512753</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.132536948236395</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6010436518139585</v>
+      </c>
+      <c r="P24" t="n">
+        <v>68.20311407833618</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>108.4260162989868</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9500719276287699</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6857155322955844</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7561682737865842</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-2.579867335363432</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7627033371998491</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3338692498440498</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.101621682686336</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6814428095352629</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.401414432544451</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.041428621039857</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7827706413740748</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5778142001059249</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.13314152632328</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6024129468447214</v>
+      </c>
+      <c r="P25" t="n">
+        <v>68.19401166036327</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>108.4169138810139</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_14_9_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9498665180059959</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6854642093467496</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7552370308342337</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.597007387899222</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7616423897046826</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3352428249373643</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.10330228040243</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.684045378215166</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.408124266945559</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.046084822580363</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7807666208469517</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5790015759368573</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.133689285317344</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6036508717229834</v>
+      </c>
+      <c r="P26" t="n">
+        <v>68.18580031835012</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>108.4087025390007</v>
       </c>
     </row>
   </sheetData>
